--- a/PythonPrograms/sample.xlsx
+++ b/PythonPrograms/sample.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kbharathi\Desktop\MDM\WebApp\PythonPrograms\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7B4C60-F1CD-4625-B8D3-2C1512C45A79}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="map.contact_main" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="map.contact_relationship" sheetId="2" r:id="rId2"/>
     <sheet name="map.contact_main_multiple" sheetId="3" r:id="rId3"/>
     <sheet name="map.contact_phone" sheetId="4" r:id="rId4"/>
+    <sheet name="map.contact_board" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="387">
   <si>
     <t>Req</t>
   </si>
@@ -911,927 +918,281 @@
     <t>MaritalStatusCode  value should match between the source and Target logic</t>
   </si>
   <si>
-    <t>TC_TransformationCheck_StartDate</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_EndDate</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_AddressName</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_AddressType</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_AddressLine1</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_AddressLine2</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_AddressLine3</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_AddressLine4</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_AddressLine5</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_AddressNumber</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_NeighbourhoodName</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_District</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_City</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_County</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_TransformationCheck_Country </t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_CountryRegion</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_AddressEmail</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_AddressFaxNumber</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_AddressPhoneNumber</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_Province</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_PostalCode</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_PostalCodeExtension</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_Latitude</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_Longitude</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_Altitude</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_AddressCI</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_ActiveFlag</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_AddressMailCode</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_AddressSubCode</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_Addressee</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_CrossStreet</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_Descriptor</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_GeoAccuracyCode</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_GeoAccuracyMessage</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_GeoAccuracyValue</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_GeoCodeFailDescription</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_GeoCodeValidFlag</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_GeoCodeStatusCode</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_GeographyCode</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_LandlordName</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_LandlordPhoneNumber</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_LocationFlag</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_MetroArea</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_MSA</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_OwnershipCode</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_ParAddressID</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_PremiseFlag</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_RuralRouteNumber</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_TimeZoneCode</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_UTMEasting</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_UTMNorthing</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_WorldArea</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_AlumniAddressFlag</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_SourceLastUpdated</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_RegionID</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_ShipAddressFlag</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_AlignmentFlag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_TransformationCheck_Cleanse </t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_SourceVerificationCD</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_SourceVerifiedFlag</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_SourceVerifiedStatus</t>
+    <t>TC_TransformationCheck_RelationshipType</t>
+  </si>
+  <si>
+    <t>TC_TransformationCheck_RelationshipEntityID</t>
+  </si>
+  <si>
+    <t>TC_TransformationCheck_RelationshipEntityFirstName</t>
+  </si>
+  <si>
+    <t>TC_TransformationCheck_RelationshipEntityLastName</t>
+  </si>
+  <si>
+    <t>TC_TransformationCheck_RelationshipEntityEmployeeID</t>
+  </si>
+  <si>
+    <t>TC_TransformationCheck_RelationshipEntityEmail</t>
+  </si>
+  <si>
+    <t>TC_TransformationCheck_RelationshipEntityPhone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_TransformationCheck_RelationshipEntityPrimaryFlag  </t>
+  </si>
+  <si>
+    <t>TC_TransformationCheck_AccountVerificationStatus</t>
+  </si>
+  <si>
+    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ RelationshipType</t>
+  </si>
+  <si>
+    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ RelationshipEntityID</t>
+  </si>
+  <si>
+    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ RelationshipEntityFirstName</t>
+  </si>
+  <si>
+    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ RelationshipEntityLastName</t>
+  </si>
+  <si>
+    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ RelationshipEntityEmployeeID</t>
+  </si>
+  <si>
+    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ RelationshipEntityEmail</t>
+  </si>
+  <si>
+    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ RelationshipEntityPhone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_Verify whether the transformation logic has applied as per the requirement document for the_ RelationshipEntityPrimaryFlag  </t>
+  </si>
+  <si>
+    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ AccountVerificationStatus</t>
+  </si>
+  <si>
+    <t>select  mdmid, s_party_per.row_id Account select  mdmid, RelationshipType from map.contact_relationshipNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
+  </si>
+  <si>
+    <t>select  mdmid, s_party_per.row_id s_party_per.row_id select  mdmid, RelationshipEntityID from map.contact_relationshipNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
+  </si>
+  <si>
+    <t>select  mdmid, s_contact S_CONTACT select  mdmid, RelationshipEntityFirstName from map.contact_relationshipNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
+  </si>
+  <si>
+    <t>select  mdmid, s_contact.user S_CONTACT select  mdmid, RelationshipEntityLastName from map.contact_relationshipNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
+  </si>
+  <si>
+    <t>select  mdmid, S_CONTACT.EMP_NUM (of the LOGIN) S_CONTACT select  mdmid, RelationshipEntityEmployeeID from map.contact_relationshipNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
+  </si>
+  <si>
+    <t>select  mdmid, S_CONTACT.X_ASSISTANT_EMAIL S_CONTACT select  mdmid, RelationshipEntityEmail from map.contact_relationshipNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
+  </si>
+  <si>
+    <t>select  mdmid, S_CONTACT.ASST_PH_NUM S_CONTACT select  mdmid, RelationshipEntityPhone from map.contact_relationshipNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
+  </si>
+  <si>
+    <t>select  mdmid, S_CONTACT.PR_ACT_ID S_CONTACT select  mdmid, RelationshipEntityPrimaryFlag   from map.contact_relationshipNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
+  </si>
+  <si>
+    <t>select  mdmid, drived  S_CONTACT select  mdmid, AccountVerificationStatus from map.contact_relationshipNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
+  </si>
+  <si>
+    <t>RelationshipType  value should match between the source and Target logic</t>
+  </si>
+  <si>
+    <t>RelationshipEntityID  value should match between the source and Target logic</t>
+  </si>
+  <si>
+    <t>RelationshipEntityFirstName  value should match between the source and Target logic</t>
+  </si>
+  <si>
+    <t>RelationshipEntityLastName  value should match between the source and Target logic</t>
+  </si>
+  <si>
+    <t>RelationshipEntityEmployeeID  value should match between the source and Target logic</t>
+  </si>
+  <si>
+    <t>RelationshipEntityEmail  value should match between the source and Target logic</t>
+  </si>
+  <si>
+    <t>RelationshipEntityPhone  value should match between the source and Target logic</t>
+  </si>
+  <si>
+    <t>RelationshipEntityPrimaryFlag    value should match between the source and Target logic</t>
+  </si>
+  <si>
+    <t>AccountVerificationStatus  value should match between the source and Target logic</t>
+  </si>
+  <si>
+    <t>TC_TransformationCheck_Value</t>
+  </si>
+  <si>
+    <t>TC_TransformationCheck_ValueSequenceType</t>
+  </si>
+  <si>
+    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ Value</t>
+  </si>
+  <si>
+    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ ValueSequenceType</t>
+  </si>
+  <si>
+    <t>select  mdmid, s_Contact_xm.name  s_contact_xm select  mdmid, Value from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
+  </si>
+  <si>
+    <t>select  mdmid, s_Contact_xm.name  s_contact_xm select  mdmid, ValueSequenceType from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
+  </si>
+  <si>
+    <t>select  mdmid, s_contact_xm.Created  s_contact_xm select  mdmid, SourceCreatedDate from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
+  </si>
+  <si>
+    <t>select  mdmid, s_Contact_xm.created_by  s_contact_xm select  mdmid, SourceCreatedBy from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
+  </si>
+  <si>
+    <t>select  mdmid, s_Contact_xm.last_upd s_contact_xm select  mdmid, SourceLastUpdatedDate from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
+  </si>
+  <si>
+    <t>select  mdmid, s_Contact_xm.last_upd_by  s_contact_xm select  mdmid, SourceLastUpdatedBy from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
+  </si>
+  <si>
+    <t>select  mdmid, s_Contact_xm.db_last_upd  s_contact_xm select  mdmid, SourceDBLastUpdate from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
+  </si>
+  <si>
+    <t>select  mdmid, s_Contact_xm.db_last_upd_src s_contact_xm select  mdmid, SourceDBLastUpdateSource from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
+  </si>
+  <si>
+    <t>Value  value should match between the source and Target logic</t>
+  </si>
+  <si>
+    <t>ValueSequenceType  value should match between the source and Target logic</t>
+  </si>
+  <si>
+    <t>TC_TransformationCheck_PhoneNumber</t>
+  </si>
+  <si>
+    <t>TC_TransformationCheck_PhoneNumberExtension</t>
+  </si>
+  <si>
+    <t>TC_TransformationCheck_PhonePin</t>
+  </si>
+  <si>
+    <t>TC_TransformationCheck_PhoneOwner</t>
+  </si>
+  <si>
+    <t>TC_TransformationCheck_PhoneDeviceTypeCode</t>
+  </si>
+  <si>
+    <t>TC_TransformationCheck_PhoneAssetNumber</t>
+  </si>
+  <si>
+    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ PhoneNumber</t>
+  </si>
+  <si>
+    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ PhoneNumberExtension</t>
+  </si>
+  <si>
+    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ PhonePin</t>
+  </si>
+  <si>
+    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ PhoneOwner</t>
+  </si>
+  <si>
+    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ PhoneDeviceTypeCode</t>
+  </si>
+  <si>
+    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ PhoneAssetNumber</t>
+  </si>
+  <si>
+    <t>select  mdmid, s_per_comm_Addr.addr s_per_comm_Addr select  mdmid, PhoneNumber from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
+  </si>
+  <si>
+    <t>select  mdmid, S_EMP_PER.EMP_PH_NUM_EXT S_EMP_PER select  mdmid, PhoneNumberExtension from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
+  </si>
+  <si>
+    <t>select  mdmid, S_CONTACT.PAGER_PIN S_CONTACT select  mdmid, PhonePin from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
+  </si>
+  <si>
+    <t>select  mdmid, S_CONTACT.PAGER_COMPANY_ID S_CONTACT select  mdmid, PhoneOwner from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
+  </si>
+  <si>
+    <t>select  mdmid, S_CONTACT.PAGER_TYPE_CD S_CONTACT select  mdmid, PhoneDeviceTypeCode from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
+  </si>
+  <si>
+    <t>select  mdmid, S_CONTACT.PAGER_NUM S_CONTACT select  mdmid, PhoneAssetNumber from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
+  </si>
+  <si>
+    <t>PhoneNumber  value should match between the source and Target logic</t>
+  </si>
+  <si>
+    <t>PhoneNumberExtension  value should match between the source and Target logic</t>
+  </si>
+  <si>
+    <t>PhonePin  value should match between the source and Target logic</t>
+  </si>
+  <si>
+    <t>PhoneOwner  value should match between the source and Target logic</t>
+  </si>
+  <si>
+    <t>PhoneDeviceTypeCode  value should match between the source and Target logic</t>
+  </si>
+  <si>
+    <t>PhoneAssetNumber  value should match between the source and Target logic</t>
   </si>
   <si>
     <t>TC_TransformationCheck_AccountID</t>
   </si>
   <si>
-    <t>TC_TransformationCheck_SourceLastUpdAlumni</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_SourceLastUpdByAlumni</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_CountryDesc</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ StartDate</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ EndDate</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ AddressName</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ AddressType</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ AddressLine1</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ AddressLine2</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ AddressLine3</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ AddressLine4</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ AddressLine5</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ AddressNumber</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ NeighbourhoodName</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ District</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ City</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ County</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_Verify whether the transformation logic has applied as per the requirement document for the_ Country </t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ CountryRegion</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ AddressEmail</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ AddressFaxNumber</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ AddressPhoneNumber</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ Province</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ PostalCode</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ PostalCodeExtension</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ Latitude</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ Longitude</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ Altitude</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ AddressCI</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ ActiveFlag</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ AddressMailCode</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ AddressSubCode</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ Addressee</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ CrossStreet</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ Descriptor</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ GeoAccuracyCode</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ GeoAccuracyMessage</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ GeoAccuracyValue</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ GeoCodeFailDescription</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ GeoCodeValidFlag</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ GeoCodeStatusCode</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ GeographyCode</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ LandlordName</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ LandlordPhoneNumber</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ LocationFlag</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ MetroArea</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ MSA</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ OwnershipCode</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ ParAddressID</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ PremiseFlag</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ RuralRouteNumber</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ TimeZoneCode</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ UTMEasting</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ UTMNorthing</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ WorldArea</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ AlumniAddressFlag</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ SourceLastUpdated</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ RegionID</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ ShipAddressFlag</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ AlignmentFlag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_Verify whether the transformation logic has applied as per the requirement document for the_ Cleanse </t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ SourceVerificationCD</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ SourceVerifiedFlag</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ SourceVerifiedStatus</t>
+    <t>TC_TransformationCheck_AccountName</t>
+  </si>
+  <si>
+    <t>TC_TransformationCheck_BoardSpecificCommittee</t>
+  </si>
+  <si>
+    <t>TC_TransformationCheck_BoardRole</t>
   </si>
   <si>
     <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ AccountID</t>
   </si>
   <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ SourceLastUpdAlumni</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ SourceLastUpdByAlumni</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ CountryDesc</t>
-  </si>
-  <si>
-    <t>select  mdmid,  START_DT from crm.S_ADDR_PER select  mdmid, StartDate from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  END_DT from crm.S_ADDR_PER select  mdmid, EndDate from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  ADDR_NAME  from crm.S_ADDR_PER select  mdmid, AddressName from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  ADDR_TYPE_CD
- from crm.S_ADDR_PER select  mdmid, AddressType from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  ADDR from crm.S_ADDR_PER select  mdmid, AddressLine1 from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  ADDR_LINE_2 from crm.S_ADDR_PER select  mdmid, AddressLine2 from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  ADDR_LINE_3 from crm.S_ADDR_PER select  mdmid, AddressLine3 from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  ADDR_LINE_4 from crm.S_ADDR_PER select  mdmid, AddressLine4 from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  ADDR_LINE_5 from crm.S_ADDR_PER select  mdmid, AddressLine5 from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  ADDR_NUM from crm.S_ADDR_PER select  mdmid, AddressNumber from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  NEIGHBORHOOD_NAME from crm.S_ADDR_PER select  mdmid, NeighbourhoodName from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  DISTRICT from crm.S_ADDR_PER select  mdmid, District from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  CITY from crm.S_ADDR_PER select  mdmid, City from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  COUNTY from crm.S_ADDR_PER select  mdmid, County from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  COUNTRY  from crm.S_ADDR_PER select  mdmid, Country  from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  COUNTRY_REGION  from crm.S_ADDR_PER select  mdmid, CountryRegion from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  EMAIL_ADDR from crm.S_ADDR_PER select  mdmid, AddressEmail from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  FAX_PH_NUM from crm.S_ADDR_PER select  mdmid, AddressFaxNumber from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  PH_NUM from crm.S_ADDR_PER select  mdmid, AddressPhoneNumber from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  state from crm.S_ADDR_PER select  mdmid, Province from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  ZIPCODE from crm.S_ADDR_PER select  mdmid, PostalCode from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  ZIPCODE_EXT from crm.S_ADDR_PER select  mdmid, PostalCodeExtension from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  LATITUDE from crm.S_ADDR_PER select  mdmid, Latitude from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  LONGITUDE from crm.S_ADDR_PER select  mdmid, Longitude from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  ALTITUDE  from crm.S_ADDR_PER select  mdmid, Altitude from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  X_ADDR_CI from crm.S_ADDR_PER select  mdmid, AddressCI from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  ACTIVE_FLG from crm.S_ADDR_PER select  mdmid, ActiveFlag from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  COMMENTS from crm.S_ADDR_PER select  mdmid, Comments from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  ADDR_MAIL_CD from crm.S_ADDR_PER select  mdmid, AddressMailCode from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  ADDR_SUB_CD from crm.S_ADDR_PER select  mdmid, AddressSubCode from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  ADDRESSEE from crm.S_ADDR_PER select  mdmid, Addressee from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  CROSS_ST from crm.S_ADDR_PER select  mdmid, CrossStreet from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  DESCRIPTOR from crm.S_ADDR_PER select  mdmid, Descriptor from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  GEO_ACCURACY_CODE from crm.S_ADDR_PER select  mdmid, GeoAccuracyCode from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  GEO_ACCURACY_MSG from crm.S_ADDR_PER select  mdmid, GeoAccuracyMessage from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  GEO_ACCURACY_VAL from crm.S_ADDR_PER select  mdmid, GeoAccuracyValue from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  GEOCD_FAIL_DESC from crm.S_ADDR_PER select  mdmid, GeoCodeFailDescription from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  GEOCD_VALID_FLG from crm.S_ADDR_PER select  mdmid, GeoCodeValidFlag from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  GEOCODE_STATUS_CD from crm.S_ADDR_PER select  mdmid, GeoCodeStatusCode from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  GEOGRAPHY_CODE from crm.S_ADDR_PER select  mdmid, GeographyCode from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  LANDLORD_NAME from crm.S_ADDR_PER select  mdmid, LandlordName from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  LANDLORD_PH_NUM from crm.S_ADDR_PER select  mdmid, LandlordPhoneNumber from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  LOCATION_FLG from crm.S_ADDR_PER select  mdmid, LocationFlag from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  METRO_AREA from crm.S_ADDR_PER select  mdmid, MetroArea from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  MSA from crm.S_ADDR_PER select  mdmid, MSA from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  OWNERSHIP_CD from crm.S_ADDR_PER select  mdmid, OwnershipCode from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  PAR_ADDR_ID from crm.S_ADDR_PER select  mdmid, ParAddressID from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  PREMISE_FLG from crm.S_ADDR_PER select  mdmid, PremiseFlag from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  RURAL_ROUTE_NUM from crm.S_ADDR_PER select  mdmid, RuralRouteNumber from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  TIME_ZONE_CD from crm.S_ADDR_PER select  mdmid, TimeZoneCode from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  UTM_EASTING from crm.S_ADDR_PER select  mdmid, UTMEasting from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  UTM_NORTHING from crm.S_ADDR_PER select  mdmid, UTMNorthing from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  WORLD_AREA from crm.S_ADDR_PER select  mdmid, WorldArea from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  X_ALUM_ADDR_FLG from crm.S_ADDR_PER select  mdmid, AlumniAddressFlag from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  LAST_UPD from crm.S_ADDR_PER select  mdmid, SourceLastUpdated from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  LAST_UPD_BY from crm.S_ADDR_PER select  mdmid, SourceLastUpdatedBy from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  X_REGION &amp; PR_REGION_ID from crm.S_ADDR_PER select  mdmid, RegionID from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  X_SHIP_ADDR_FLG from crm.S_ADDR_PER select  mdmid, ShipAddressFlag from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  ALIGNMENT_FLG from crm.S_ADDR_PER select  mdmid, AlignmentFlag from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  CREATED from crm.S_ADDR_PER select  mdmid, SourceCreatedDate from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  CREATED_BY from crm.S_ADDR_PER select  mdmid, SourceCreatedBy from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  LAST_UPD from crm.S_ADDR_PER select  mdmid, SourceLastUpdatedDate from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  DB_LAST_UPD from crm.S_ADDR_PER select  mdmid, SourceDBLastUpdate from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  DB_LAST_UPD_SRC from crm.S_ADDR_PER select  mdmid, SourceDBLastUpdateSource from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  DISA_CLEANSE_FLG from crm.S_ADDR_PER select  mdmid, Cleanse  from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  VERIFICATION_CODE from crm.S_ADDR_PER select  mdmid, SourceVerificationCD from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  VERIFIED_FLG from crm.S_ADDR_PER select  mdmid, SourceVerifiedFlag from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  VERIFY_STATUS_MSG from crm.S_ADDR_PER select  mdmid, SourceVerifiedStatus from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  X_ACCOUNT_ID from crm.S_ADDR_PER select  mdmid, AccountID from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  X_ALUM_LAST_UPDATED from crm.S_ADDR_PER select  mdmid, SourceLastUpdAlumni from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  X_ALUM_LAST_UPDATED_BY from crm.S_ADDR_PER select  mdmid, SourceLastUpdByAlumni from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid,  X_COUNTRY_DESC from crm.S_ADDR_PER select  mdmid, CountryDesc from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>StartDate  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>EndDate  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>AddressName  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>AddressType  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>AddressLine1  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>AddressLine2  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>AddressLine3  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>AddressLine4  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>AddressLine5  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>AddressNumber  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>NeighbourhoodName  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>District  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>City  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>County  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>Country   value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>CountryRegion  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>AddressEmail  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>AddressFaxNumber  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>AddressPhoneNumber  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>Province  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>PostalCode  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>PostalCodeExtension  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>Latitude  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>Longitude  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>Altitude  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>AddressCI  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>ActiveFlag  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>AddressMailCode  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>AddressSubCode  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>Addressee  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>CrossStreet  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>Descriptor  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>GeoAccuracyCode  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>GeoAccuracyMessage  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>GeoAccuracyValue  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>GeoCodeFailDescription  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>GeoCodeValidFlag  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>GeoCodeStatusCode  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>GeographyCode  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>LandlordName  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>LandlordPhoneNumber  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>LocationFlag  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>MetroArea  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>MSA  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>OwnershipCode  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>ParAddressID  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>PremiseFlag  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>RuralRouteNumber  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>TimeZoneCode  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>UTMEasting  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>UTMNorthing  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>WorldArea  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>AlumniAddressFlag  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>SourceLastUpdated  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>RegionID  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>ShipAddressFlag  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>AlignmentFlag  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>Cleanse   value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>SourceVerificationCD  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>SourceVerifiedFlag  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>SourceVerifiedStatus  value should match between the source and Target logic</t>
+    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ AccountName</t>
+  </si>
+  <si>
+    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ BoardSpecificCommittee</t>
+  </si>
+  <si>
+    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ BoardRole</t>
+  </si>
+  <si>
+    <t>select  mdmid, s_party_per.row_id Account select  mdmid, AccountID from map.contact_boardNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
+  </si>
+  <si>
+    <t>select  mdmid, s_party_per.row_id s_party_per.row_id select  mdmid, AccountName from map.contact_boardNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
+  </si>
+  <si>
+    <t>select  mdmid, s_contact S_CONTACT select  mdmid, BoardSpecificCommittee from map.contact_boardNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
+  </si>
+  <si>
+    <t>select  mdmid, s_contact.user S_CONTACT select  mdmid, BoardRole from map.contact_boardNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
   </si>
   <si>
     <t>AccountID  value should match between the source and Target logic</t>
   </si>
   <si>
-    <t>SourceLastUpdAlumni  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>SourceLastUpdByAlumni  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>CountryDesc  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_Value</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_ValueSequenceType</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ Value</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ ValueSequenceType</t>
-  </si>
-  <si>
-    <t>select  mdmid, s_Contact_xm.name  s_contact_xm select  mdmid, Value from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid, s_Contact_xm.name  s_contact_xm select  mdmid, ValueSequenceType from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid, s_contact_xm.Created  s_contact_xm select  mdmid, SourceCreatedDate from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid, s_Contact_xm.created_by  s_contact_xm select  mdmid, SourceCreatedBy from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid, s_Contact_xm.last_upd s_contact_xm select  mdmid, SourceLastUpdatedDate from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid, s_Contact_xm.last_upd_by  s_contact_xm select  mdmid, SourceLastUpdatedBy from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid, s_Contact_xm.db_last_upd  s_contact_xm select  mdmid, SourceDBLastUpdate from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid, s_Contact_xm.db_last_upd_src s_contact_xm select  mdmid, SourceDBLastUpdateSource from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>Value  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>ValueSequenceType  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_PhoneNumber</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_PhoneNumberExtension</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_PhonePin</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_PhoneOwner</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_PhoneDeviceTypeCode</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_PhoneAssetNumber</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ PhoneNumber</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ PhoneNumberExtension</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ PhonePin</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ PhoneOwner</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ PhoneDeviceTypeCode</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the_ PhoneAssetNumber</t>
-  </si>
-  <si>
-    <t>select  mdmid, s_per_comm_Addr.addr s_per_comm_Addr select  mdmid, PhoneNumber from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid, S_EMP_PER.EMP_PH_NUM_EXT S_EMP_PER select  mdmid, PhoneNumberExtension from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid, S_CONTACT.PAGER_PIN S_CONTACT select  mdmid, PhonePin from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid, S_CONTACT.PAGER_COMPANY_ID S_CONTACT select  mdmid, PhoneOwner from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid, S_CONTACT.PAGER_TYPE_CD S_CONTACT select  mdmid, PhoneDeviceTypeCode from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>select  mdmid, S_CONTACT.PAGER_NUM S_CONTACT select  mdmid, PhoneAssetNumber from map.contact_mainNote: Please apply processID filter while validing the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>PhoneNumber  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>PhoneNumberExtension  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>PhonePin  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>PhoneOwner  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>PhoneDeviceTypeCode  value should match between the source and Target logic</t>
-  </si>
-  <si>
-    <t>PhoneAssetNumber  value should match between the source and Target logic</t>
+    <t>AccountName  value should match between the source and Target logic</t>
+  </si>
+  <si>
+    <t>BoardSpecificCommittee  value should match between the source and Target logic</t>
+  </si>
+  <si>
+    <t>BoardRole  value should match between the source and Target logic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1897,6 +1258,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1943,7 +1312,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1975,9 +1344,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2009,6 +1396,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2184,24 +1589,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="1" customWidth="1"/>
+    <col min="1" max="8" width="15.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2239,7 +1637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -2262,7 +1660,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" ht="377" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -2285,7 +1683,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -2308,7 +1706,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" ht="203" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -2331,7 +1729,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -2354,7 +1752,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -2377,7 +1775,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -2400,7 +1798,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -2423,7 +1821,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" ht="232" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -2446,7 +1844,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -2469,7 +1867,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -2492,7 +1890,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -2515,7 +1913,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -2538,7 +1936,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -2561,7 +1959,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" ht="203" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -2584,7 +1982,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -2607,7 +2005,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" ht="203" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -2630,7 +2028,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -2653,7 +2051,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" ht="203" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -2676,7 +2074,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -2699,7 +2097,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" ht="203" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -2722,7 +2120,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" ht="203" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -2745,7 +2143,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -2768,7 +2166,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" ht="232" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -2791,7 +2189,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" ht="232" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>22</v>
       </c>
@@ -2814,7 +2212,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>23</v>
       </c>
@@ -2837,7 +2235,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>24</v>
       </c>
@@ -2860,7 +2258,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>25</v>
       </c>
@@ -2883,7 +2281,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>26</v>
       </c>
@@ -2906,7 +2304,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>27</v>
       </c>
@@ -2929,7 +2327,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" ht="203" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>28</v>
       </c>
@@ -2952,7 +2350,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>29</v>
       </c>
@@ -2975,7 +2373,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>30</v>
       </c>
@@ -2998,7 +2396,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>31</v>
       </c>
@@ -3021,7 +2419,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>32</v>
       </c>
@@ -3044,7 +2442,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>33</v>
       </c>
@@ -3067,7 +2465,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>34</v>
       </c>
@@ -3090,7 +2488,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>35</v>
       </c>
@@ -3113,7 +2511,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" ht="203" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>36</v>
       </c>
@@ -3136,7 +2534,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>37</v>
       </c>
@@ -3159,7 +2557,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>38</v>
       </c>
@@ -3182,7 +2580,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>39</v>
       </c>
@@ -3205,7 +2603,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>40</v>
       </c>
@@ -3228,7 +2626,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>41</v>
       </c>
@@ -3251,7 +2649,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>42</v>
       </c>
@@ -3274,7 +2672,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>43</v>
       </c>
@@ -3297,7 +2695,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>44</v>
       </c>
@@ -3320,7 +2718,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>45</v>
       </c>
@@ -3343,7 +2741,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" ht="232" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>46</v>
       </c>
@@ -3366,7 +2764,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>47</v>
       </c>
@@ -3389,7 +2787,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" ht="232" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>48</v>
       </c>
@@ -3412,7 +2810,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>49</v>
       </c>
@@ -3435,7 +2833,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" ht="203" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>50</v>
       </c>
@@ -3458,7 +2856,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>51</v>
       </c>
@@ -3481,7 +2879,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>52</v>
       </c>
@@ -3504,7 +2902,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" ht="203" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>53</v>
       </c>
@@ -3527,7 +2925,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>54</v>
       </c>
@@ -3550,7 +2948,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" ht="203" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>55</v>
       </c>
@@ -3573,7 +2971,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" ht="203" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>56</v>
       </c>
@@ -3596,7 +2994,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" ht="232" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>57</v>
       </c>
@@ -3619,7 +3017,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" ht="232" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>58</v>
       </c>
@@ -3642,7 +3040,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>59</v>
       </c>
@@ -3665,7 +3063,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" ht="232" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>60</v>
       </c>
@@ -3688,7 +3086,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" ht="203" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>61</v>
       </c>
@@ -3711,7 +3109,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>62</v>
       </c>
@@ -3734,7 +3132,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" ht="203" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>63</v>
       </c>
@@ -3757,7 +3155,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>64</v>
       </c>
@@ -3780,7 +3178,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>65</v>
       </c>
@@ -3803,7 +3201,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>66</v>
       </c>
@@ -3826,7 +3224,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>67</v>
       </c>
@@ -3849,7 +3247,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>68</v>
       </c>
@@ -3878,24 +3276,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="1" customWidth="1"/>
+    <col min="1" max="8" width="15.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3933,7 +3326,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -3956,7 +3349,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" ht="377" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -3979,7 +3372,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" ht="203" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -3987,22 +3380,22 @@
         <v>297</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>362</v>
+        <v>306</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>427</v>
+        <v>315</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>226</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -4010,22 +3403,22 @@
         <v>298</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>363</v>
+        <v>307</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>428</v>
+        <v>316</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>226</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="203" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -4033,22 +3426,22 @@
         <v>299</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>364</v>
+        <v>308</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>429</v>
+        <v>317</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>226</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="203" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -4056,22 +3449,22 @@
         <v>300</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>365</v>
+        <v>309</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>430</v>
+        <v>318</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>226</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -4079,22 +3472,22 @@
         <v>301</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>366</v>
+        <v>310</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>431</v>
+        <v>319</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>226</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -4102,22 +3495,22 @@
         <v>302</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>367</v>
+        <v>311</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>432</v>
+        <v>320</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>226</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -4125,22 +3518,22 @@
         <v>303</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>368</v>
+        <v>312</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>433</v>
+        <v>321</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>226</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="232" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -4148,22 +3541,22 @@
         <v>304</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>369</v>
+        <v>313</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>434</v>
+        <v>322</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>226</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="203" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -4171,1514 +3564,19 @@
         <v>305</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>370</v>
+        <v>314</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>435</v>
+        <v>323</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>226</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="2">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="2">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="2">
-        <v>11</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="2">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="2">
-        <v>13</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="2">
-        <v>14</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="2">
-        <v>15</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="2">
-        <v>16</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="2">
-        <v>17</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="2">
-        <v>18</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="2">
-        <v>19</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="2">
-        <v>20</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="2">
-        <v>21</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="2">
-        <v>22</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="2">
-        <v>23</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="2">
-        <v>24</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="2">
-        <v>25</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="2">
-        <v>26</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="2">
-        <v>27</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="2">
-        <v>28</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="2">
-        <v>29</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="2">
-        <v>30</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="2">
-        <v>31</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="2">
-        <v>32</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="2">
-        <v>33</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="2">
-        <v>34</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="2">
-        <v>35</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="2">
-        <v>36</v>
-      </c>
-      <c r="C40" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="2">
-        <v>37</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="2">
-        <v>38</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="2">
-        <v>39</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="2">
-        <v>40</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="2">
-        <v>41</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="2">
-        <v>42</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="2">
-        <v>43</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="2">
-        <v>44</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="2">
-        <v>45</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="2">
-        <v>46</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="2">
-        <v>47</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="2">
-        <v>48</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="2">
-        <v>49</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="2">
-        <v>50</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="2">
-        <v>51</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="2">
-        <v>52</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="2">
-        <v>53</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="2">
-        <v>54</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="2">
-        <v>55</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="2">
-        <v>56</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="2">
-        <v>57</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="2">
-        <v>58</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="2">
-        <v>59</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="2">
-        <v>60</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="2">
-        <v>61</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="2">
-        <v>62</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="2">
-        <v>63</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="2">
-        <v>64</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="2">
-        <v>65</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="2">
-        <v>66</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="2">
-        <v>67</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="2">
-        <v>68</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="2">
-        <v>69</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="2">
-        <v>70</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="2">
-        <v>71</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="2">
-        <v>72</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="2">
-        <v>73</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -5687,24 +3585,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="1" customWidth="1"/>
+    <col min="1" max="8" width="15.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5742,7 +3633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -5765,7 +3656,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" ht="377" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -5788,53 +3679,53 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" ht="203" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>564</v>
+        <v>333</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>566</v>
+        <v>335</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>568</v>
+        <v>337</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>226</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>565</v>
+        <v>334</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>567</v>
+        <v>336</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>569</v>
+        <v>338</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>226</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -5848,7 +3739,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>570</v>
+        <v>339</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>226</v>
@@ -5857,7 +3748,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -5871,7 +3762,7 @@
         <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>571</v>
+        <v>340</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>226</v>
@@ -5880,7 +3771,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -5894,7 +3785,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>572</v>
+        <v>341</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>226</v>
@@ -5903,7 +3794,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -5917,7 +3808,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>573</v>
+        <v>342</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>226</v>
@@ -5926,7 +3817,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -5940,7 +3831,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>574</v>
+        <v>343</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>226</v>
@@ -5949,7 +3840,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -5963,7 +3854,7 @@
         <v>12</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>575</v>
+        <v>344</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>226</v>
@@ -5978,24 +3869,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="1" customWidth="1"/>
+    <col min="1" max="8" width="15.7265625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6033,7 +3917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="116" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -6056,7 +3940,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" ht="377" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -6079,142 +3963,334 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>578</v>
+        <v>347</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>584</v>
+        <v>353</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>590</v>
+        <v>359</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>226</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>579</v>
+        <v>348</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>585</v>
+        <v>354</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>591</v>
+        <v>360</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>226</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="203" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>580</v>
+        <v>349</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>586</v>
+        <v>355</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>592</v>
+        <v>361</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>226</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>581</v>
+        <v>350</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>587</v>
+        <v>356</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>593</v>
+        <v>362</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>226</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>582</v>
+        <v>351</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>588</v>
+        <v>357</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>594</v>
+        <v>363</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>226</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="217.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>583</v>
+        <v>352</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>589</v>
+        <v>358</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>595</v>
+        <v>364</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>226</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>601</v>
+        <v>370</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="8" width="15.7265625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="116" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="377" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="203" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/PythonPrograms/sample.xlsx
+++ b/PythonPrograms/sample.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="map.contact_board" sheetId="1" r:id="rId1"/>
+    <sheet name="map.contact_education" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>Req</t>
   </si>
@@ -55,76 +55,40 @@
     <t>1</t>
   </si>
   <si>
-    <t>TC01_Onbaording the map.contact_board   into MDM Raw layer.</t>
-  </si>
-  <si>
-    <t>TC00_Countvalidation_map.contact_board</t>
+    <t>TC01_Onbaording the map.contact_education   into MDM Raw layer.</t>
+  </si>
+  <si>
+    <t>TC00_Countvalidation_map.contact_education</t>
   </si>
   <si>
     <t>TC_Verification of duplicates in the data</t>
   </si>
   <si>
-    <t>TC_TransformationCheck_startdate</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_enddate</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_AccountID</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_AccountName</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_BoardSpecificCommittee</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_ BoardRole</t>
-  </si>
-  <si>
-    <t>TC_TransformationCheck_BoardMemberFlag</t>
-  </si>
-  <si>
-    <t>TC_Verification of structure for onbaordingmap.contact_board</t>
+    <t>TC_TransformationCheck_Extract the data from the table in the MDM Map Layer using  below query</t>
+  </si>
+  <si>
+    <t>TC_Verification of structure for onbaordingmap.contact_education</t>
   </si>
   <si>
     <t>TC_Verification of count between the source and target table</t>
   </si>
   <si>
-    <t>Check whether there  any duplicates exists on the latest processID in map.contact_boardtable.</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the column  startdate</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the column  enddate</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the column  AccountID</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the column  AccountName</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the column  BoardSpecificCommittee</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the column   BoardRole</t>
-  </si>
-  <si>
-    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the column  BoardMemberFlag</t>
+    <t>Check whether there  any duplicates exists on the latest processID in map.contact_educationtable.</t>
+  </si>
+  <si>
+    <t>TC_Verify whether the transformation logic has applied as per the requirement document for the column  Extract the data from the table in the MDM Map Layer using  below query</t>
   </si>
   <si>
     <t xml:space="preserve"> Open the Microsoft SQL Server,Go to the Databases folder and expand it. 
-                Go to the Tables folder right click on the map.contact_boardtable a new window will open with metadata. 
-                Go to the Tables folder right click on the map.contact_boardtable a new window will open with metadata. 
+                Go to the Tables folder right click on the map.contact_educationtable a new window will open with metadata. 
+                Go to the Tables folder right click on the map.contact_educationtable a new window will open with metadata. 
                 Verify the struture of the both the tables. </t>
   </si>
   <si>
     <t xml:space="preserve"> Verify the count of the source table using below query in the MDM Raw Layer 
  select count(*) from crm.s_contact where change_flag= 'Y' 
                    Verify the count of the target table using below query in the MDM MAP layer 
- select count(*) from map.contact_board 
+ select count(*) from map.contact_education 
                    Note: Please apply processID filter for both the tables Verify the count between the  source and target table. </t>
   </si>
   <si>
@@ -132,92 +96,27 @@
   </si>
   <si>
     <t>Extract the data from the table in the MDM Raw Layer using  below query
-SELECT  c1.row_id, p1.START_DT 
-FROM CRM.S_ORG_EXT o1 LEFT OUTER JOIN CRM.S_PARTY_PER p1
-ON o1.ROW_ID = p1.PARTY_ID LEFT OUTER JOIN CRM.S_CONTACT c1 ON p1.PERSON_ID=c1.ROW_ID 
- WHERE o1.PROCESSID='$latestProcessId' AND p1.CHANGE_FLAG='Y' and c1.change_flag = 'Y'
- and o1.change_flag = 'Y' and p1.processid = '$LatestProcessID'
-and c1.ROW_ID IN (SELECT ROW_ID FROM CRM.CONTACTID_STG WHERE PROCESSID='$LatestProcessID') 
-and p1.PARTY_ID IS NOT NULL and p1.X_CONTACT_CLASS = 'Board' Extract the data from the table in the MDM Map Layer using  below query 
- select mdmid,  startdate map.contact_board 
- Data Validation:  Verify the data from Source Query and Target Query  i.e by applying the except query.   
-Note: Please apply processID filter while validating the data for both the above mentioned tables.</t>
+SourceQuery: 'select row_id,'Degree' as EducationTypeCode from crm.s_Contact where 1=1 and c1.ROW_ID IN (SELECT ROW_ID FROM CRM.CONTACTID_STG WHERE PROCESSID='$LatestProcessID')  and change_flag = 'Y' Extract the data from the table in the MDM Map Layer using  below query 
+ TargetQuery: select row_id,EducationTypeCode   from map.contact_education Data Validation:  Verify the data from Source Query and Target Query  i.e by applying the except query.   
+ Note: Please apply processID filter while validating the data for both the above mentioned tables.</t>
   </si>
   <si>
     <t>Extract the data from the table in the MDM Raw Layer using  below query
-SELECT  c1.row_id, p1.end_Dt 
-FROM CRM.S_ORG_EXT o1 LEFT OUTER JOIN CRM.S_PARTY_PER p1
-ON o1.ROW_ID = p1.PARTY_ID LEFT OUTER JOIN CRM.S_CONTACT c1 ON p1.PERSON_ID=c1.ROW_ID 
- WHERE o1.PROCESSID='$latestProcessId' AND p1.CHANGE_FLAG='Y' and c1.change_flag = 'Y'
- and o1.change_flag = 'Y' and p1.processid = '$LatestProcessID'
-and c1.ROW_ID IN (SELECT ROW_ID FROM CRM.CONTACTID_STG WHERE PROCESSID='$LatestProcessID') 
-and p1.PARTY_ID IS NOT NULL and p1.X_CONTACT_CLASS = 'Board' Extract the data from the table in the MDM Map Layer using  below query 
- select mdmid,  enddate map.contact_board 
- Data Validation:  Verify the data from Source Query and Target Query  i.e by applying the except query.   
-Note: Please apply processID filter while validating the data for both the above mentioned tables.</t>
+SourceQuery: select row_id, CASE WHEN c1.DEGREE IS NULL THEN 'Not Provided' ELSE SRC1.DEGREE END EducationDegree from crm.s_Contact where 1=1 and c1.ROW_ID IN (SELECT ROW_ID FROM CRM.CONTACTID_STG WHERE PROCESSID='$LatestProcessID')  and change_flag = 'Y' Extract the data from the table in the MDM Map Layer using  below query 
+ TargetQuery: select row_id,EducationDegree  from map.contact_education Data Validation:  Verify the data from Source Query and Target Query  i.e by applying the except query.   
+ Note: Please apply processID filter while validating the data for both the above mentioned tables.</t>
   </si>
   <si>
     <t>Extract the data from the table in the MDM Raw Layer using  below query
-SELECT  c1.row_id,CASE WHEN  p1.PARTY_ID IS NULL THEN 'Not Provided' ELSE  p1.PARTY_ID END AccountID
-FROM CRM.S_ORG_EXT o1 LEFT OUTER JOIN CRM.S_PARTY_PER p1
-ON o1.ROW_ID = p1.PARTY_ID LEFT OUTER JOIN CRM.S_CONTACT c1 ON p1.PERSON_ID=c1.ROW_ID 
- WHERE o1.PROCESSID='$latestProcessId' AND p1.CHANGE_FLAG='Y' and c1.change_flag = 'Y'
- and o1.change_flag = 'Y' and p1.processid = '$LatestProcessID'
-and c1.ROW_ID IN (SELECT ROW_ID FROM CRM.CONTACTID_STG WHERE PROCESSID='$LatestProcessID') 
-and p1.PARTY_ID IS NOT NULL and p1.X_CONTACT_CLASS = 'Board' Extract the data from the table in the MDM Map Layer using  below query 
- select mdmid,  AccountID map.contact_board 
- Data Validation:  Verify the data from Source Query and Target Query  i.e by applying the except query.   
-Note: Please apply processID filter while validating the data for both the above mentioned tables.</t>
+SourceQuery: select row_id, c2.ATTRIB_04 as EducationBackground  from crm.s_Contact c1, crm.s_contact_x c2 where 1=1 and c1.row_id = c2.row_id  and c1.ROW_ID IN (SELECT ROW_ID FROM CRM.CONTACTID_STG WHERE PROCESSID='$LatestProcessID')  and change_flag = 'Y' Extract the data from the table in the MDM Map Layer using  below query 
+ TargetQuery: select row_id,EducationBackground   from map.contact_education Data Validation:  Verify the data from Source Query and Target Query  i.e by applying the except query.   
+ Note: Please apply processID filter while validating the data for both the above mentioned tables.</t>
   </si>
   <si>
     <t>Extract the data from the table in the MDM Raw Layer using  below query
-SELECT  c1.row_id,CASE WHEN o1.NAME IS NULL THEN 'Not Provided' ELSE o1.NAME END AccountIName
-FROM CRM.S_ORG_EXT o1 LEFT OUTER JOIN CRM.S_PARTY_PER p1
-ON o1.ROW_ID = p1.PARTY_ID LEFT OUTER JOIN CRM.S_CONTACT c1 ON p1.PERSON_ID=c1.ROW_ID 
- WHERE o1.PROCESSID='$latestProcessId'  AND p1.CHANGE_FLAG='Y' and c1.change_flag = 'Y'
- and o1.change_flag = 'Y' and p1.processid = '$LatestProcessID'
-and c1.ROW_ID IN (SELECT ROW_ID FROM CRM.CONTACTID_STG WHERE PROCESSID='$LatestProcessID') 
-and  o1.NAME IS NOT NULL and p1.X_CONTACT_CLASS = 'Board' Extract the data from the table in the MDM Map Layer using  below query 
- select mdmid,  AccountName map.contact_board 
- Data Validation:  Verify the data from Source Query and Target Query  i.e by applying the except query.   
-Note: Please apply processID filter while validating the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>Extract the data from the table in the MDM Raw Layer using  below query
-SELECT c1.row_id, CASE WHEN p1.X_JOB_DEPT IS NULL THEN 'Not Provided' ELSE p1.X_JOB_DEPT END BoardSpecificCommittee
-FROM CRM.S_ORG_EXT o1 LEFT OUTER JOIN CRM.S_PARTY_PER p1
-ON o1.ROW_ID = p1.PARTY_ID LEFT OUTER JOIN CRM.S_CONTACT c1 ON p1.PERSON_ID=c1.ROW_ID 
- WHERE o1.PROCESSID='$latestProcessId' AND p1.CHANGE_FLAG='Y' and c1.change_flag = 'Y'
- and o1.change_flag = 'Y' and p1.processid = '$LatestProcessID'
-and c1.ROW_ID IN (SELECT ROW_ID FROM CRM.CONTACTID_STG WHERE PROCESSID='$LatestProcessID') 
-and p1.X_JOB_DEPT IS NOT NULL and p1.X_CONTACT_CLASS = 'Board' Extract the data from the table in the MDM Map Layer using  below query 
- select mdmid,  BoardSpecificCommittee map.contact_board 
- Data Validation:  Verify the data from Source Query and Target Query  i.e by applying the except query.   
-Note: Please apply processID filter while validating the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>Extract the data from the table in the MDM Raw Layer using  below query
-SELECT c1.row_id,p1.X_JOB_TITLE_LEVEL AS BoardRole FROM CRM.S_ORG_EXT o1 LEFT OUTER JOIN CRM.S_PARTY_PER p1
-ON o1.ROW_ID = p1.PARTY_ID LEFT OUTER JOIN CRM.S_CONTACT c1 ON p1.PERSON_ID=c1.ROW_ID 
- WHERE o1.PROCESSID='$latestProcessId'  AND p1.CHANGE_FLAG='Y' and c1.change_flag = 'Y'
- and o1.change_flag = 'Y' and p1.processid = '$LatestProcessID'
-and c1.ROW_ID IN (SELECT ROW_ID FROM CRM.CONTACTID_STG WHERE PROCESSID='$LatestProcessID') 
-and p1.X_JOB_TITLE_LEVEL IS NOT NULL and p1.X_CONTACT_CLASS = 'Board' Extract the data from the table in the MDM Map Layer using  below query 
- select mdmid,   BoardRole map.contact_board 
- Data Validation:  Verify the data from Source Query and Target Query  i.e by applying the except query.   
-Note: Please apply processID filter while validating the data for both the above mentioned tables.</t>
-  </si>
-  <si>
-    <t>Extract the data from the table in the MDM Raw Layer using  below query
-SELECT c1.row_id,SUBSTRING(B.BOARD_SEAT_FLG,1,10)  FROM CRM.S_ORG_EXT o1 LEFT OUTER JOIN CRM.S_PARTY_PER p1
-ON o1.ROW_ID = p1.PARTY_ID LEFT OUTER JOIN CRM.S_CONTACT c1 ON p1.PERSON_ID=c1.ROW_ID 
- WHERE o1.PROCESSID='$latestProcessId'  AND p1.CHANGE_FLAG='Y' and c1.change_flag = 'Y'
- and o1.change_flag = 'Y' and p1.processid = '$LatestProcessID'
-and c1.ROW_ID IN (SELECT ROW_ID FROM CRM.CONTACTID_STG WHERE PROCESSID='$LatestProcessID') 
-and p1.BoardMemberFlag IS NOT NULL and p1.X_CONTACT_CLASS = 'Board' Extract the data from the table in the MDM Map Layer using  below query 
- select mdmid,  BoardMemberFlag map.contact_board 
- Data Validation:  Verify the data from Source Query and Target Query  i.e by applying the except query.   
-Note: Please apply processID filter while validing the data for both the above mentioned tables.</t>
+SourceQuery: select row_id, c2.X_ALUM_HON_QUAL AS Qualifications  from crm.s_Contact c1, crm.s_contact_x c2 where 1=1 and c1.row_id = c2.row_id  and c1.ROW_ID IN (SELECT ROW_ID FROM CRM.CONTACTID_STG WHERE PROCESSID='$LatestProcessID')  and change_flag = 'Y' Extract the data from the table in the MDM Map Layer using  below query 
+ TargetQuery: select row_id,Qualifications    from map.contact_education Data Validation:  Verify the data from Source Query and Target Query  i.e by applying the except query.   
+ Note: Please apply processID filter while validating the data for both the above mentioned tables.</t>
   </si>
   <si>
     <t>Structure should match between Source and Target table.</t>
@@ -227,7 +126,7 @@
   </si>
   <si>
     <t xml:space="preserve">Below Query will be used to identify the duplicates  
-                select mdmid,count(*) from map.contact_boardwhere 1=1 group by mdmid having count(*) 
+                select mdmid,count(*) from map.contact_educationwhere 1=1 group by mdmid having count(*) 
                 Note: Please apply processID filter while validating the data  </t>
   </si>
   <si>
@@ -237,25 +136,7 @@
     <t xml:space="preserve"> Duplicates should not exists on the latest processID. We should have all unique records </t>
   </si>
   <si>
-    <t>startdate  value should match between the Source and Target tables</t>
-  </si>
-  <si>
-    <t>enddate  value should match between the Source and Target tables</t>
-  </si>
-  <si>
-    <t>AccountID  value should match between the Source and Target tables</t>
-  </si>
-  <si>
-    <t>AccountName  value should match between the Source and Target tables</t>
-  </si>
-  <si>
-    <t>BoardSpecificCommittee  value should match between the Source and Target tables</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BoardRole  value should match between the Source and Target tables</t>
-  </si>
-  <si>
-    <t>BoardMemberFlag  value should match between the Source and Target tables</t>
+    <t>Extract the data from the table in the MDM Map Layer using  below query  value should match between the Source and Target tables</t>
   </si>
 </sst>
 </file>
@@ -616,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -681,19 +562,19 @@
         <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -707,19 +588,19 @@
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -733,19 +614,19 @@
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -756,19 +637,19 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -776,22 +657,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -799,22 +680,22 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -822,91 +703,22 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="2">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="2">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="2">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
